--- a/datasheets/Cormie_et_al_1994.xlsx
+++ b/datasheets/Cormie_et_al_1994.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="118">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">TX-2,3,5</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/0016-7037(94)90097-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cormie et al. (1994)</t>
   </si>
   <si>
     <t xml:space="preserve">FL-1</t>
@@ -491,39 +497,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,10 +550,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP150"/>
+  <dimension ref="A1:AQ150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AT15" activeCellId="0" sqref="AT15"/>
+      <selection pane="topLeft" activeCell="AQ42" activeCellId="0" sqref="AQ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -579,11 +585,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="43" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="17.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="44" style="1" width="11.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,43 +717,46 @@
       <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>21.5</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" s="5"/>
       <c r="T2" s="7" t="n">
@@ -804,48 +814,51 @@
         <v>-4.3</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>19</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" s="5"/>
       <c r="T3" s="7" t="n">
@@ -903,48 +916,51 @@
         <v>-4</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>19.1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" s="5"/>
       <c r="T4" s="7" t="n">
@@ -1002,48 +1018,51 @@
         <v>-6</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>19.7</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" s="5"/>
       <c r="T5" s="7" t="n">
@@ -1101,48 +1120,51 @@
         <v>-8.1</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>22.8</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" s="5"/>
       <c r="T6" s="7" t="n">
@@ -1200,48 +1222,51 @@
         <v>-8.8</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>18.4</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" s="5"/>
       <c r="T7" s="7" t="n">
@@ -1299,48 +1324,51 @@
         <v>-12.7</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>19.6</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="5"/>
       <c r="T8" s="7" t="n">
@@ -1398,48 +1426,51 @@
         <v>-12.5</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>16.5</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="5"/>
       <c r="T9" s="7" t="n">
@@ -1497,48 +1528,51 @@
         <v>-12.1</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>19.2</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" s="5"/>
       <c r="T10" s="7" t="n">
@@ -1596,48 +1630,51 @@
         <v>-11.5</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>18.7</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" s="5"/>
       <c r="T11" s="7" t="n">
@@ -1695,48 +1732,51 @@
         <v>-14</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>18.3</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" s="5"/>
       <c r="T12" s="7" t="n">
@@ -1794,48 +1834,51 @@
         <v>-12</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>15.9</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="5"/>
       <c r="T13" s="7" t="n">
@@ -1893,48 +1936,51 @@
         <v>-12.1</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15.9</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="5"/>
       <c r="T14" s="7" t="n">
@@ -1992,48 +2038,51 @@
         <v>-12.8</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>14.7</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="5"/>
       <c r="T15" s="7" t="n">
@@ -2091,48 +2140,51 @@
         <v>-18.5</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" s="5"/>
       <c r="T16" s="7" t="n">
@@ -2190,48 +2242,51 @@
         <v>-14.1</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>14.5</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="5"/>
       <c r="T17" s="7" t="n">
@@ -2289,48 +2344,51 @@
         <v>-13.8</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>23</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" s="5"/>
       <c r="T18" s="7" t="n">
@@ -2388,48 +2446,51 @@
         <v>-11.7</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>13.9</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M19" s="5"/>
       <c r="T19" s="7" t="n">
@@ -2487,48 +2548,51 @@
         <v>-15.4</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>13.6</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20" s="5"/>
       <c r="T20" s="7" t="n">
@@ -2586,48 +2650,51 @@
         <v>-15.9</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>13.9</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="5"/>
       <c r="T21" s="7" t="n">
@@ -2685,48 +2752,51 @@
         <v>-17.6</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>16.3</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M22" s="5"/>
       <c r="T22" s="7" t="n">
@@ -2784,48 +2854,51 @@
         <v>-19.8</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>13.9</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M23" s="5"/>
       <c r="T23" s="7" t="n">
@@ -2883,48 +2956,51 @@
         <v>-15.3</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>17</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M24" s="5"/>
       <c r="T24" s="7" t="n">
@@ -2982,48 +3058,51 @@
         <v>-17</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>13.6</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M25" s="5"/>
       <c r="T25" s="7" t="n">
@@ -3081,48 +3160,51 @@
         <v>-21.8</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>14.3</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M26" s="5"/>
       <c r="T26" s="7" t="n">
@@ -3180,48 +3262,51 @@
         <v>-22.8</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="5"/>
       <c r="T27" s="7" t="n">
@@ -3279,48 +3364,51 @@
         <v>-24.3</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>14</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M28" s="5"/>
       <c r="T28" s="7" t="n">
@@ -3378,48 +3466,51 @@
         <v>-24.6</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>10.9</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M29" s="5"/>
       <c r="T29" s="7" t="n">
@@ -3477,48 +3568,51 @@
         <v>-24.2</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>10.6</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" s="5"/>
       <c r="T30" s="7" t="n">
@@ -3576,48 +3670,51 @@
         <v>-26.8</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>11.3</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M31" s="5"/>
       <c r="T31" s="7" t="n">
@@ -3675,48 +3772,51 @@
         <v>-25.8</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>10.8</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M32" s="5"/>
       <c r="T32" s="7" t="n">
@@ -3774,10 +3874,13 @@
         <v>-17.9</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/datasheets/Cormie_et_al_1994.xlsx
+++ b/datasheets/Cormie_et_al_1994.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="119">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">d18Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18Operror</t>
   </si>
   <si>
     <t xml:space="preserve">Method</t>
@@ -550,10 +553,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ150"/>
+  <dimension ref="A1:AR150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ42" activeCellId="0" sqref="AQ42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,28 +569,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="13" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="17.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="44" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="14" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="48.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="17.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="45" style="1" width="11.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +630,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -720,101 +723,104 @@
       <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>21.5</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="T2" s="7" t="n">
+      <c r="L2" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="U2" s="7" t="n">
         <v>27.42</v>
       </c>
-      <c r="U2" s="7" t="n">
+      <c r="V2" s="7" t="n">
         <v>-97.2121</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>-3.1</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="AA2" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
         <v>-4.7</v>
       </c>
-      <c r="AB2" s="1" t="n">
+      <c r="AC2" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AD2" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AE2" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AF2" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="AF2" s="1" t="n">
+      <c r="AG2" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AG2" s="1" t="n">
+      <c r="AH2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="1" t="n">
+      <c r="AI2" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AK2" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AL2" s="1" t="n">
         <v>-4.3</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>55</v>
@@ -822,101 +828,102 @@
       <c r="AQ2" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR2" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="T3" s="7" t="n">
+      <c r="L3" s="5"/>
+      <c r="M3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="U3" s="7" t="n">
         <v>29.3931</v>
       </c>
-      <c r="U3" s="7" t="n">
+      <c r="V3" s="7" t="n">
         <v>-85.0902</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="W3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="X3" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="Y3" s="1" t="n">
         <v>-4.7</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Z3" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Z3" s="1" t="n">
+      <c r="AA3" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AB3" s="1" t="n">
         <v>-4.7</v>
       </c>
-      <c r="AB3" s="1" t="n">
+      <c r="AC3" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AD3" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AD3" s="1" t="n">
+      <c r="AE3" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AF3" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AF3" s="1" t="n">
+      <c r="AG3" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AG3" s="1" t="n">
+      <c r="AH3" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AH3" s="1" t="n">
+      <c r="AI3" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AK3" s="1" t="n">
         <v>-3.1</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AL3" s="1" t="n">
         <v>-4</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>55</v>
@@ -924,101 +931,102 @@
       <c r="AQ3" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR3" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>19.1</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="T4" s="7" t="n">
+      <c r="L4" s="5"/>
+      <c r="M4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="U4" s="7" t="n">
         <v>32.4757</v>
       </c>
-      <c r="U4" s="7" t="n">
+      <c r="V4" s="7" t="n">
         <v>-91.1119</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="X4" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>-6.7</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>-6.7</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AB4" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AC4" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AD4" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>-2.1</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AF4" s="1" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AG4" s="1" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AG4" s="1" t="n">
+      <c r="AH4" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AH4" s="1" t="n">
+      <c r="AI4" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AK4" s="1" t="n">
         <v>-4.3</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AL4" s="1" t="n">
         <v>-6</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>55</v>
@@ -1026,101 +1034,104 @@
       <c r="AQ4" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR4" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>19.7</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="T5" s="7" t="n">
+      <c r="L5" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="U5" s="7" t="n">
         <v>34.0342</v>
       </c>
-      <c r="U5" s="7" t="n">
+      <c r="V5" s="7" t="n">
         <v>-94.4831</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="W5" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="X5" s="1" t="n">
         <v>-4.9</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>-8.2</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>-0.9</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>-8.2</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AC5" s="1" t="n">
         <v>-6.2</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AD5" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AF5" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="AF5" s="1" t="n">
+      <c r="AG5" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AG5" s="1" t="n">
+      <c r="AH5" s="1" t="n">
         <v>-0.9</v>
       </c>
-      <c r="AH5" s="1" t="n">
+      <c r="AI5" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AI5" s="1" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>-4.4</v>
       </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="AK5" s="1" t="n">
         <v>-5.6</v>
       </c>
-      <c r="AK5" s="1" t="n">
+      <c r="AL5" s="1" t="n">
         <v>-8.1</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>55</v>
@@ -1128,101 +1139,102 @@
       <c r="AQ5" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR5" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>22.8</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="T6" s="7" t="n">
+      <c r="L6" s="5"/>
+      <c r="M6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="U6" s="7" t="n">
         <v>31.2344</v>
       </c>
-      <c r="U6" s="7" t="n">
+      <c r="V6" s="7" t="n">
         <v>-100.4122</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>697</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="X6" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="AA6" s="1" t="n">
         <v>-8.6</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AB6" s="1" t="n">
+      <c r="AC6" s="1" t="n">
         <v>-6.7</v>
       </c>
-      <c r="AC6" s="1" t="n">
+      <c r="AD6" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>-3.4</v>
       </c>
-      <c r="AE6" s="1" t="n">
+      <c r="AF6" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AF6" s="1" t="n">
+      <c r="AG6" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="AG6" s="1" t="n">
+      <c r="AH6" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AH6" s="1" t="n">
+      <c r="AI6" s="1" t="n">
         <v>-3.4</v>
       </c>
-      <c r="AI6" s="1" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="AJ6" s="1" t="n">
+      <c r="AK6" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="AK6" s="1" t="n">
+      <c r="AL6" s="1" t="n">
         <v>-8.8</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>55</v>
@@ -1230,101 +1242,102 @@
       <c r="AQ6" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR6" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>18.4</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="T7" s="7" t="n">
+      <c r="L7" s="5"/>
+      <c r="M7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="U7" s="7" t="n">
         <v>39.092</v>
       </c>
-      <c r="U7" s="7" t="n">
+      <c r="V7" s="7" t="n">
         <v>-92.4116</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>-12.7</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>-1.8</v>
       </c>
-      <c r="Z7" s="1" t="n">
+      <c r="AA7" s="1" t="n">
         <v>-11.9</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AB7" s="1" t="n">
         <v>-11.3</v>
       </c>
-      <c r="AB7" s="1" t="n">
+      <c r="AC7" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AD7" s="1" t="n">
         <v>-6.8</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>-3.4</v>
       </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AF7" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="AF7" s="1" t="n">
+      <c r="AG7" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AG7" s="1" t="n">
+      <c r="AH7" s="1" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AH7" s="1" t="n">
+      <c r="AI7" s="1" t="n">
         <v>-4.2</v>
       </c>
-      <c r="AI7" s="1" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>-6.2</v>
       </c>
-      <c r="AJ7" s="1" t="n">
+      <c r="AK7" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AK7" s="1" t="n">
+      <c r="AL7" s="1" t="n">
         <v>-12.7</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>55</v>
@@ -1332,101 +1345,102 @@
       <c r="AQ7" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR7" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>19.6</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="T8" s="7" t="n">
+      <c r="L8" s="5"/>
+      <c r="M8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="U8" s="7" t="n">
         <v>36.4428</v>
       </c>
-      <c r="U8" s="7" t="n">
+      <c r="V8" s="7" t="n">
         <v>-98.2116</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>-5.9</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>-12.5</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="Z8" s="1" t="n">
+      <c r="AA8" s="1" t="n">
         <v>-10.7</v>
       </c>
-      <c r="AA8" s="1" t="n">
+      <c r="AB8" s="1" t="n">
         <v>-11.1</v>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AC8" s="1" t="n">
         <v>-8.6</v>
       </c>
-      <c r="AC8" s="1" t="n">
+      <c r="AD8" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AE8" s="1" t="n">
+      <c r="AF8" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="AF8" s="1" t="n">
+      <c r="AG8" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AG8" s="1" t="n">
+      <c r="AH8" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AH8" s="1" t="n">
+      <c r="AI8" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AI8" s="1" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="AJ8" s="1" t="n">
+      <c r="AK8" s="1" t="n">
         <v>-8.3</v>
       </c>
-      <c r="AK8" s="1" t="n">
+      <c r="AL8" s="1" t="n">
         <v>-12.5</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>55</v>
@@ -1434,101 +1448,104 @@
       <c r="AQ8" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR8" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>16.5</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="T9" s="7" t="n">
+      <c r="L9" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="U9" s="7" t="n">
         <v>38.5958</v>
       </c>
-      <c r="U9" s="7" t="n">
+      <c r="V9" s="7" t="n">
         <v>-78.4916</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>646</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="X9" s="1" t="n">
         <v>-8.3</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>-12.7</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-3.3</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>-12.7</v>
       </c>
       <c r="AA9" s="1" t="n">
         <v>-12.7</v>
       </c>
       <c r="AB9" s="1" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="AC9" s="1" t="n">
         <v>-11.6</v>
       </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AD9" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>-5.6</v>
       </c>
-      <c r="AE9" s="1" t="n">
+      <c r="AF9" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AF9" s="1" t="n">
+      <c r="AG9" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AG9" s="1" t="n">
+      <c r="AH9" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AH9" s="1" t="n">
+      <c r="AI9" s="1" t="n">
         <v>-4.8</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>-6.9</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AK9" s="1" t="n">
         <v>-8.3</v>
       </c>
-      <c r="AK9" s="1" t="n">
+      <c r="AL9" s="1" t="n">
         <v>-12.1</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>55</v>
@@ -1536,101 +1553,102 @@
       <c r="AQ9" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR9" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>19.2</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="T10" s="7" t="n">
+      <c r="L10" s="5"/>
+      <c r="M10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="U10" s="7" t="n">
         <v>36.3448</v>
       </c>
-      <c r="U10" s="7" t="n">
+      <c r="V10" s="7" t="n">
         <v>-96.3156</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="X10" s="1" t="n">
         <v>-5.7</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>-11.5</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>-1.5</v>
       </c>
-      <c r="Z10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>-10.4</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AB10" s="1" t="n">
         <v>-10.3</v>
       </c>
-      <c r="AB10" s="1" t="n">
+      <c r="AC10" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AC10" s="1" t="n">
+      <c r="AD10" s="1" t="n">
         <v>-5.9</v>
       </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AE10" s="1" t="n">
+      <c r="AF10" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="AF10" s="1" t="n">
+      <c r="AG10" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AG10" s="1" t="n">
+      <c r="AH10" s="1" t="n">
         <v>-1.5</v>
       </c>
-      <c r="AH10" s="1" t="n">
+      <c r="AI10" s="1" t="n">
         <v>-3.5</v>
       </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>-5.7</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AK10" s="1" t="n">
         <v>-7.5</v>
       </c>
-      <c r="AK10" s="1" t="n">
+      <c r="AL10" s="1" t="n">
         <v>-11.5</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>55</v>
@@ -1638,101 +1656,102 @@
       <c r="AQ10" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR10" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>18.7</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="T11" s="7" t="n">
+      <c r="L11" s="5"/>
+      <c r="M11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="U11" s="7" t="n">
         <v>38.1822</v>
       </c>
-      <c r="U11" s="7" t="n">
+      <c r="V11" s="7" t="n">
         <v>-95.5729</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="X11" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>-14</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>-12.4</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AB11" s="1" t="n">
         <v>-12.1</v>
       </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AC11" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="AC11" s="1" t="n">
+      <c r="AD11" s="1" t="n">
         <v>-7.2</v>
       </c>
-      <c r="AD11" s="1" t="n">
+      <c r="AE11" s="1" t="n">
         <v>-3.9</v>
       </c>
-      <c r="AE11" s="1" t="n">
+      <c r="AF11" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AF11" s="1" t="n">
+      <c r="AG11" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AG11" s="1" t="n">
+      <c r="AH11" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AH11" s="1" t="n">
+      <c r="AI11" s="1" t="n">
         <v>-4.2</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>-6.8</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AK11" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AK11" s="1" t="n">
+      <c r="AL11" s="1" t="n">
         <v>-14</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>55</v>
@@ -1740,101 +1759,104 @@
       <c r="AQ11" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR11" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>18.3</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="T12" s="7" t="n">
+      <c r="L12" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="U12" s="7" t="n">
         <v>39.2206</v>
       </c>
-      <c r="U12" s="7" t="n">
+      <c r="V12" s="7" t="n">
         <v>-82.0036</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="W12" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="X12" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>-13.3</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="Z12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AB12" s="1" t="n">
         <v>-12.3</v>
       </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AC12" s="1" t="n">
         <v>-11.4</v>
       </c>
-      <c r="AC12" s="1" t="n">
+      <c r="AD12" s="1" t="n">
         <v>-7.2</v>
       </c>
-      <c r="AD12" s="1" t="n">
+      <c r="AE12" s="1" t="n">
         <v>-4.4</v>
       </c>
-      <c r="AE12" s="1" t="n">
+      <c r="AF12" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="AF12" s="1" t="n">
+      <c r="AG12" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AG12" s="1" t="n">
+      <c r="AH12" s="1" t="n">
         <v>-3.5</v>
       </c>
-      <c r="AH12" s="1" t="n">
+      <c r="AI12" s="1" t="n">
         <v>-4.4</v>
       </c>
-      <c r="AI12" s="1" t="n">
+      <c r="AJ12" s="1" t="n">
         <v>-6.8</v>
       </c>
-      <c r="AJ12" s="1" t="n">
+      <c r="AK12" s="1" t="n">
         <v>-7.9</v>
       </c>
-      <c r="AK12" s="1" t="n">
+      <c r="AL12" s="1" t="n">
         <v>-12</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>55</v>
@@ -1842,101 +1864,102 @@
       <c r="AQ12" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR12" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>15.9</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="T13" s="7" t="n">
+      <c r="L13" s="5"/>
+      <c r="M13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="U13" s="7" t="n">
         <v>43.4924</v>
       </c>
-      <c r="U13" s="7" t="n">
+      <c r="V13" s="7" t="n">
         <v>-66.0644</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="W13" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="X13" s="1" t="n">
         <v>-8.6</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>-13.9</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="AA13" s="1" t="n">
         <v>-13.8</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AB13" s="1" t="n">
         <v>-13.9</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AC13" s="1" t="n">
         <v>-11.5</v>
       </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AD13" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AD13" s="1" t="n">
+      <c r="AE13" s="1" t="n">
         <v>-5.9</v>
       </c>
-      <c r="AE13" s="1" t="n">
+      <c r="AF13" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="AF13" s="1" t="n">
+      <c r="AG13" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="AG13" s="1" t="n">
+      <c r="AH13" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AH13" s="1" t="n">
+      <c r="AI13" s="1" t="n">
         <v>-4.7</v>
       </c>
-      <c r="AI13" s="1" t="n">
+      <c r="AJ13" s="1" t="n">
         <v>-7.2</v>
       </c>
-      <c r="AJ13" s="1" t="n">
+      <c r="AK13" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AK13" s="1" t="n">
+      <c r="AL13" s="1" t="n">
         <v>-12.1</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>55</v>
@@ -1944,101 +1967,102 @@
       <c r="AQ13" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR13" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15.9</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="T14" s="7" t="n">
+      <c r="L14" s="5"/>
+      <c r="M14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="U14" s="7" t="n">
         <v>45.2335</v>
       </c>
-      <c r="U14" s="7" t="n">
+      <c r="V14" s="7" t="n">
         <v>-61.3013</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="X14" s="1" t="n">
         <v>-9.3</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>-14.7</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="Z14" s="1" t="n">
+      <c r="AA14" s="1" t="n">
         <v>-14.7</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AB14" s="1" t="n">
         <v>-14.3</v>
       </c>
-      <c r="AB14" s="1" t="n">
+      <c r="AC14" s="1" t="n">
         <v>-12.1</v>
       </c>
-      <c r="AC14" s="1" t="n">
+      <c r="AD14" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AD14" s="1" t="n">
+      <c r="AE14" s="1" t="n">
         <v>-6.5</v>
       </c>
-      <c r="AE14" s="1" t="n">
+      <c r="AF14" s="1" t="n">
         <v>-5.7</v>
       </c>
-      <c r="AF14" s="1" t="n">
+      <c r="AG14" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AG14" s="1" t="n">
+      <c r="AH14" s="1" t="n">
         <v>-4.7</v>
       </c>
-      <c r="AH14" s="1" t="n">
+      <c r="AI14" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AI14" s="1" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AJ14" s="1" t="n">
+      <c r="AK14" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AK14" s="1" t="n">
+      <c r="AL14" s="1" t="n">
         <v>-12.8</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>55</v>
@@ -2046,101 +2070,102 @@
       <c r="AQ14" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR14" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>14.7</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="T15" s="7" t="n">
+      <c r="L15" s="5"/>
+      <c r="M15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="U15" s="7" t="n">
         <v>45.4059</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="V15" s="7" t="n">
         <v>-89.3244</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>532</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="X15" s="1" t="n">
         <v>-10.5</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>-20.7</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>-20.7</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AB15" s="1" t="n">
         <v>-19.5</v>
       </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AC15" s="1" t="n">
         <v>-16</v>
       </c>
-      <c r="AC15" s="1" t="n">
+      <c r="AD15" s="1" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>-6.7</v>
       </c>
-      <c r="AE15" s="1" t="n">
+      <c r="AF15" s="1" t="n">
         <v>-5.9</v>
       </c>
-      <c r="AF15" s="1" t="n">
+      <c r="AG15" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="AG15" s="1" t="n">
+      <c r="AH15" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="AH15" s="1" t="n">
+      <c r="AI15" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="AI15" s="1" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>-10.5</v>
       </c>
-      <c r="AJ15" s="1" t="n">
+      <c r="AK15" s="1" t="n">
         <v>-13.6</v>
       </c>
-      <c r="AK15" s="1" t="n">
+      <c r="AL15" s="1" t="n">
         <v>-18.5</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>55</v>
@@ -2148,101 +2173,102 @@
       <c r="AQ15" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR15" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="T16" s="7" t="n">
+      <c r="L16" s="5"/>
+      <c r="M16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="U16" s="7" t="n">
         <v>43.5822</v>
       </c>
-      <c r="U16" s="7" t="n">
+      <c r="V16" s="7" t="n">
         <v>-77.3456</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="W16" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="X16" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>-16.3</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="Z16" s="1" t="n">
+      <c r="AA16" s="1" t="n">
         <v>-16.3</v>
       </c>
-      <c r="AA16" s="1" t="n">
+      <c r="AB16" s="1" t="n">
         <v>-15.3</v>
       </c>
-      <c r="AB16" s="1" t="n">
+      <c r="AC16" s="1" t="n">
         <v>-14.3</v>
       </c>
-      <c r="AC16" s="1" t="n">
+      <c r="AD16" s="1" t="n">
         <v>-8.6</v>
       </c>
-      <c r="AD16" s="1" t="n">
+      <c r="AE16" s="1" t="n">
         <v>-5.9</v>
       </c>
-      <c r="AE16" s="1" t="n">
+      <c r="AF16" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AF16" s="1" t="n">
+      <c r="AG16" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="AG16" s="1" t="n">
+      <c r="AH16" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AH16" s="1" t="n">
+      <c r="AI16" s="1" t="n">
         <v>-5.9</v>
       </c>
-      <c r="AI16" s="1" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AJ16" s="1" t="n">
+      <c r="AK16" s="1" t="n">
         <v>-10.2</v>
       </c>
-      <c r="AK16" s="1" t="n">
+      <c r="AL16" s="1" t="n">
         <v>-14.1</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>55</v>
@@ -2250,101 +2276,102 @@
       <c r="AQ16" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR16" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>14.5</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="T17" s="7" t="n">
+      <c r="L17" s="5"/>
+      <c r="M17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="U17" s="7" t="n">
         <v>45.5643</v>
       </c>
-      <c r="U17" s="7" t="n">
+      <c r="V17" s="7" t="n">
         <v>-66.3958</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="W17" s="1" t="n">
+      <c r="X17" s="1" t="n">
         <v>-10.2</v>
       </c>
-      <c r="X17" s="1" t="n">
+      <c r="Y17" s="1" t="n">
         <v>-16.1</v>
       </c>
-      <c r="Y17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="Z17" s="1" t="n">
+      <c r="AA17" s="1" t="n">
         <v>-16.1</v>
       </c>
-      <c r="AA17" s="1" t="n">
+      <c r="AB17" s="1" t="n">
         <v>-15.3</v>
       </c>
-      <c r="AB17" s="1" t="n">
+      <c r="AC17" s="1" t="n">
         <v>-12.7</v>
       </c>
-      <c r="AC17" s="1" t="n">
+      <c r="AD17" s="1" t="n">
         <v>-9.5</v>
       </c>
-      <c r="AD17" s="1" t="n">
+      <c r="AE17" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="AE17" s="1" t="n">
+      <c r="AF17" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="AF17" s="1" t="n">
+      <c r="AG17" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AG17" s="1" t="n">
+      <c r="AH17" s="1" t="n">
         <v>-5.5</v>
       </c>
-      <c r="AH17" s="1" t="n">
+      <c r="AI17" s="1" t="n">
         <v>-5.8</v>
       </c>
-      <c r="AI17" s="1" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AJ17" s="1" t="n">
+      <c r="AK17" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="AK17" s="1" t="n">
+      <c r="AL17" s="1" t="n">
         <v>-13.8</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>55</v>
@@ -2352,101 +2379,102 @@
       <c r="AQ17" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR17" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="T18" s="7" t="n">
+      <c r="L18" s="5"/>
+      <c r="M18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="U18" s="7" t="n">
         <v>33.4429</v>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="V18" s="7" t="n">
         <v>-110.5138</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="W18" s="1" t="n">
         <v>1443</v>
       </c>
-      <c r="W18" s="1" t="n">
+      <c r="X18" s="1" t="n">
         <v>-6.7</v>
       </c>
-      <c r="X18" s="1" t="n">
+      <c r="Y18" s="1" t="n">
         <v>-11.7</v>
       </c>
-      <c r="Y18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="Z18" s="1" t="n">
+      <c r="AA18" s="1" t="n">
         <v>-10.5</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AB18" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="AB18" s="1" t="n">
+      <c r="AC18" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AC18" s="1" t="n">
+      <c r="AD18" s="1" t="n">
         <v>-7</v>
       </c>
-      <c r="AD18" s="1" t="n">
+      <c r="AE18" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AE18" s="1" t="n">
+      <c r="AF18" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="AF18" s="1" t="n">
+      <c r="AG18" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="AG18" s="1" t="n">
+      <c r="AH18" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AH18" s="1" t="n">
+      <c r="AI18" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="AI18" s="1" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>-6.9</v>
       </c>
-      <c r="AJ18" s="1" t="n">
+      <c r="AK18" s="1" t="n">
         <v>-8.2</v>
       </c>
-      <c r="AK18" s="1" t="n">
+      <c r="AL18" s="1" t="n">
         <v>-11.7</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>55</v>
@@ -2454,101 +2482,102 @@
       <c r="AQ18" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR18" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>13.9</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="T19" s="7" t="n">
+      <c r="L19" s="5"/>
+      <c r="M19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="U19" s="7" t="n">
         <v>44.5457</v>
       </c>
-      <c r="U19" s="7" t="n">
+      <c r="V19" s="7" t="n">
         <v>-78.4324</v>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="W19" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="W19" s="1" t="n">
+      <c r="X19" s="1" t="n">
         <v>-11</v>
       </c>
-      <c r="X19" s="1" t="n">
+      <c r="Y19" s="1" t="n">
         <v>-17.8</v>
       </c>
-      <c r="Y19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
         <v>-4.8</v>
       </c>
-      <c r="Z19" s="1" t="n">
+      <c r="AA19" s="1" t="n">
         <v>-17.8</v>
       </c>
-      <c r="AA19" s="1" t="n">
+      <c r="AB19" s="1" t="n">
         <v>-16.9</v>
       </c>
-      <c r="AB19" s="1" t="n">
+      <c r="AC19" s="1" t="n">
         <v>-15.6</v>
       </c>
-      <c r="AC19" s="1" t="n">
+      <c r="AD19" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="AD19" s="1" t="n">
+      <c r="AE19" s="1" t="n">
         <v>-6.8</v>
       </c>
-      <c r="AE19" s="1" t="n">
+      <c r="AF19" s="1" t="n">
         <v>-5.9</v>
       </c>
-      <c r="AF19" s="1" t="n">
+      <c r="AG19" s="1" t="n">
         <v>-4.8</v>
       </c>
-      <c r="AG19" s="1" t="n">
+      <c r="AH19" s="1" t="n">
         <v>-6.2</v>
       </c>
-      <c r="AH19" s="1" t="n">
+      <c r="AI19" s="1" t="n">
         <v>-6.9</v>
       </c>
-      <c r="AI19" s="1" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AJ19" s="1" t="n">
+      <c r="AK19" s="1" t="n">
         <v>-11.7</v>
       </c>
-      <c r="AK19" s="1" t="n">
+      <c r="AL19" s="1" t="n">
         <v>-15.4</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>55</v>
@@ -2556,101 +2585,102 @@
       <c r="AQ19" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR19" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>13.6</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="T20" s="7" t="n">
+      <c r="L20" s="5"/>
+      <c r="M20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="U20" s="7" t="n">
         <v>45.5117</v>
       </c>
-      <c r="U20" s="7" t="n">
+      <c r="V20" s="7" t="n">
         <v>-80.2824</v>
       </c>
-      <c r="V20" s="1" t="n">
+      <c r="W20" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="W20" s="1" t="n">
+      <c r="X20" s="1" t="n">
         <v>-11.4</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="Y20" s="1" t="n">
         <v>-18.5</v>
       </c>
-      <c r="Y20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="Z20" s="1" t="n">
+      <c r="AA20" s="1" t="n">
         <v>-18.5</v>
       </c>
-      <c r="AA20" s="1" t="n">
+      <c r="AB20" s="1" t="n">
         <v>-17.6</v>
       </c>
-      <c r="AB20" s="1" t="n">
+      <c r="AC20" s="1" t="n">
         <v>-15.7</v>
       </c>
-      <c r="AC20" s="1" t="n">
+      <c r="AD20" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AD20" s="1" t="n">
+      <c r="AE20" s="1" t="n">
         <v>-6.8</v>
       </c>
-      <c r="AE20" s="1" t="n">
+      <c r="AF20" s="1" t="n">
         <v>-5.9</v>
       </c>
-      <c r="AF20" s="1" t="n">
+      <c r="AG20" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AG20" s="1" t="n">
+      <c r="AH20" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="AH20" s="1" t="n">
+      <c r="AI20" s="1" t="n">
         <v>-7</v>
       </c>
-      <c r="AI20" s="1" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>-10.2</v>
       </c>
-      <c r="AJ20" s="1" t="n">
+      <c r="AK20" s="1" t="n">
         <v>-12.1</v>
       </c>
-      <c r="AK20" s="1" t="n">
+      <c r="AL20" s="1" t="n">
         <v>-15.9</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>55</v>
@@ -2658,101 +2688,102 @@
       <c r="AQ20" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR20" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>13.9</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="T21" s="7" t="n">
+      <c r="L21" s="5"/>
+      <c r="M21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="U21" s="7" t="n">
         <v>46.3634</v>
       </c>
-      <c r="U21" s="7" t="n">
+      <c r="V21" s="7" t="n">
         <v>-74.5922</v>
       </c>
-      <c r="V21" s="1" t="n">
+      <c r="W21" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="X21" s="1" t="n">
         <v>-12.3</v>
       </c>
-      <c r="X21" s="1" t="n">
+      <c r="Y21" s="1" t="n">
         <v>-19.7</v>
       </c>
-      <c r="Y21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="Z21" s="1" t="n">
+      <c r="AA21" s="1" t="n">
         <v>-19.7</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="AB21" s="1" t="n">
         <v>-19</v>
       </c>
-      <c r="AB21" s="1" t="n">
+      <c r="AC21" s="1" t="n">
         <v>-16.7</v>
       </c>
-      <c r="AC21" s="1" t="n">
+      <c r="AD21" s="1" t="n">
         <v>-11.1</v>
       </c>
-      <c r="AD21" s="1" t="n">
+      <c r="AE21" s="1" t="n">
         <v>-8.3</v>
       </c>
-      <c r="AE21" s="1" t="n">
+      <c r="AF21" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AF21" s="1" t="n">
+      <c r="AG21" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="AG21" s="1" t="n">
+      <c r="AH21" s="1" t="n">
         <v>-6.8</v>
       </c>
-      <c r="AH21" s="1" t="n">
+      <c r="AI21" s="1" t="n">
         <v>-7.8</v>
       </c>
-      <c r="AI21" s="1" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>-11.1</v>
       </c>
-      <c r="AJ21" s="1" t="n">
+      <c r="AK21" s="1" t="n">
         <v>-13.1</v>
       </c>
-      <c r="AK21" s="1" t="n">
+      <c r="AL21" s="1" t="n">
         <v>-17.6</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>55</v>
@@ -2760,101 +2791,102 @@
       <c r="AQ21" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR21" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>16.3</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="T22" s="7" t="n">
+      <c r="L22" s="5"/>
+      <c r="M22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="U22" s="7" t="n">
         <v>41.3654</v>
       </c>
-      <c r="U22" s="7" t="n">
+      <c r="V22" s="7" t="n">
         <v>-102.1954</v>
       </c>
-      <c r="V22" s="1" t="n">
+      <c r="W22" s="1" t="n">
         <v>1123</v>
       </c>
-      <c r="W22" s="1" t="n">
+      <c r="X22" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="X22" s="1" t="n">
+      <c r="Y22" s="1" t="n">
         <v>-19.8</v>
       </c>
-      <c r="Y22" s="1" t="n">
+      <c r="Z22" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="Z22" s="1" t="n">
+      <c r="AA22" s="1" t="n">
         <v>-18</v>
       </c>
-      <c r="AA22" s="1" t="n">
+      <c r="AB22" s="1" t="n">
         <v>-18.3</v>
       </c>
-      <c r="AB22" s="1" t="n">
+      <c r="AC22" s="1" t="n">
         <v>-15</v>
       </c>
-      <c r="AC22" s="1" t="n">
+      <c r="AD22" s="1" t="n">
         <v>-11.9</v>
       </c>
-      <c r="AD22" s="1" t="n">
+      <c r="AE22" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AE22" s="1" t="n">
+      <c r="AF22" s="1" t="n">
         <v>-6.2</v>
       </c>
-      <c r="AF22" s="1" t="n">
+      <c r="AG22" s="1" t="n">
         <v>-4.9</v>
       </c>
-      <c r="AG22" s="1" t="n">
+      <c r="AH22" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="AH22" s="1" t="n">
+      <c r="AI22" s="1" t="n">
         <v>-7.2</v>
       </c>
-      <c r="AI22" s="1" t="n">
+      <c r="AJ22" s="1" t="n">
         <v>-12</v>
       </c>
-      <c r="AJ22" s="1" t="n">
+      <c r="AK22" s="1" t="n">
         <v>-14.6</v>
       </c>
-      <c r="AK22" s="1" t="n">
+      <c r="AL22" s="1" t="n">
         <v>-19.8</v>
-      </c>
-      <c r="AO22" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP22" s="1" t="s">
         <v>55</v>
@@ -2862,101 +2894,102 @@
       <c r="AQ22" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR22" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>13.9</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="T23" s="7" t="n">
+      <c r="L23" s="5"/>
+      <c r="M23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="U23" s="7" t="n">
         <v>53.3931</v>
       </c>
-      <c r="U23" s="7" t="n">
+      <c r="V23" s="7" t="n">
         <v>-132.2409</v>
       </c>
-      <c r="V23" s="1" t="n">
+      <c r="W23" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="W23" s="1" t="n">
+      <c r="X23" s="1" t="n">
         <v>-12.9</v>
       </c>
-      <c r="X23" s="1" t="n">
+      <c r="Y23" s="1" t="n">
         <v>-16.7</v>
       </c>
-      <c r="Y23" s="1" t="n">
+      <c r="Z23" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="Z23" s="1" t="n">
+      <c r="AA23" s="1" t="n">
         <v>-16.7</v>
       </c>
-      <c r="AA23" s="1" t="n">
+      <c r="AB23" s="1" t="n">
         <v>-16.4</v>
       </c>
-      <c r="AB23" s="1" t="n">
+      <c r="AC23" s="1" t="n">
         <v>-15.6</v>
       </c>
-      <c r="AC23" s="1" t="n">
+      <c r="AD23" s="1" t="n">
         <v>-13.1</v>
       </c>
-      <c r="AD23" s="1" t="n">
+      <c r="AE23" s="1" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AE23" s="1" t="n">
+      <c r="AF23" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AF23" s="1" t="n">
+      <c r="AG23" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AG23" s="1" t="n">
+      <c r="AH23" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AH23" s="1" t="n">
+      <c r="AI23" s="1" t="n">
         <v>-8.5</v>
       </c>
-      <c r="AI23" s="1" t="n">
+      <c r="AJ23" s="1" t="n">
         <v>-11.2</v>
       </c>
-      <c r="AJ23" s="1" t="n">
+      <c r="AK23" s="1" t="n">
         <v>-13.9</v>
       </c>
-      <c r="AK23" s="1" t="n">
+      <c r="AL23" s="1" t="n">
         <v>-15.3</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>55</v>
@@ -2964,101 +2997,102 @@
       <c r="AQ23" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR23" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="T24" s="7" t="n">
+      <c r="L24" s="5"/>
+      <c r="M24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="U24" s="7" t="n">
         <v>43.011</v>
       </c>
-      <c r="U24" s="7" t="n">
+      <c r="V24" s="7" t="n">
         <v>-119.041</v>
       </c>
-      <c r="V24" s="1" t="n">
+      <c r="W24" s="1" t="n">
         <v>1478</v>
       </c>
-      <c r="W24" s="1" t="n">
+      <c r="X24" s="1" t="n">
         <v>-14.4</v>
       </c>
-      <c r="X24" s="1" t="n">
+      <c r="Y24" s="1" t="n">
         <v>-18</v>
       </c>
-      <c r="Y24" s="1" t="n">
+      <c r="Z24" s="1" t="n">
         <v>-9.4</v>
       </c>
-      <c r="Z24" s="1" t="n">
+      <c r="AA24" s="1" t="n">
         <v>-17.4</v>
       </c>
-      <c r="AA24" s="1" t="n">
+      <c r="AB24" s="1" t="n">
         <v>-18</v>
       </c>
-      <c r="AB24" s="1" t="n">
+      <c r="AC24" s="1" t="n">
         <v>-16.2</v>
       </c>
-      <c r="AC24" s="1" t="n">
+      <c r="AD24" s="1" t="n">
         <v>-13.4</v>
       </c>
-      <c r="AD24" s="1" t="n">
+      <c r="AE24" s="1" t="n">
         <v>-11.7</v>
       </c>
-      <c r="AE24" s="1" t="n">
+      <c r="AF24" s="1" t="n">
         <v>-10.8</v>
       </c>
-      <c r="AF24" s="1" t="n">
+      <c r="AG24" s="1" t="n">
         <v>-9.5</v>
-      </c>
-      <c r="AG24" s="1" t="n">
-        <v>-9.4</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>-9.4</v>
       </c>
       <c r="AI24" s="1" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="AJ24" s="1" t="n">
         <v>-11.9</v>
       </c>
-      <c r="AJ24" s="1" t="n">
+      <c r="AK24" s="1" t="n">
         <v>-15.2</v>
       </c>
-      <c r="AK24" s="1" t="n">
+      <c r="AL24" s="1" t="n">
         <v>-17</v>
-      </c>
-      <c r="AO24" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP24" s="1" t="s">
         <v>55</v>
@@ -3066,101 +3100,102 @@
       <c r="AQ24" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR24" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>13.6</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="T25" s="7" t="n">
+      <c r="L25" s="5"/>
+      <c r="M25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="U25" s="7" t="n">
         <v>44.2333</v>
       </c>
-      <c r="U25" s="7" t="n">
+      <c r="V25" s="7" t="n">
         <v>-104.2158</v>
       </c>
-      <c r="V25" s="1" t="n">
+      <c r="W25" s="1" t="n">
         <v>1517</v>
       </c>
-      <c r="W25" s="1" t="n">
+      <c r="X25" s="1" t="n">
         <v>-13.1</v>
       </c>
-      <c r="X25" s="1" t="n">
+      <c r="Y25" s="1" t="n">
         <v>-21.9</v>
       </c>
-      <c r="Y25" s="1" t="n">
+      <c r="Z25" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="Z25" s="1" t="n">
+      <c r="AA25" s="1" t="n">
         <v>-21.4</v>
       </c>
-      <c r="AA25" s="1" t="n">
+      <c r="AB25" s="1" t="n">
         <v>-21.9</v>
       </c>
-      <c r="AB25" s="1" t="n">
+      <c r="AC25" s="1" t="n">
         <v>-18.7</v>
       </c>
-      <c r="AC25" s="1" t="n">
+      <c r="AD25" s="1" t="n">
         <v>-15.1</v>
       </c>
-      <c r="AD25" s="1" t="n">
+      <c r="AE25" s="1" t="n">
         <v>-9.9</v>
       </c>
-      <c r="AE25" s="1" t="n">
+      <c r="AF25" s="1" t="n">
         <v>-8.6</v>
       </c>
-      <c r="AF25" s="1" t="n">
+      <c r="AG25" s="1" t="n">
         <v>-7</v>
       </c>
-      <c r="AG25" s="1" t="n">
+      <c r="AH25" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="AH25" s="1" t="n">
+      <c r="AI25" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AI25" s="1" t="n">
+      <c r="AJ25" s="1" t="n">
         <v>-14</v>
       </c>
-      <c r="AJ25" s="1" t="n">
+      <c r="AK25" s="1" t="n">
         <v>-18.2</v>
       </c>
-      <c r="AK25" s="1" t="n">
+      <c r="AL25" s="1" t="n">
         <v>-21.8</v>
-      </c>
-      <c r="AO25" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP25" s="1" t="s">
         <v>55</v>
@@ -3168,101 +3203,102 @@
       <c r="AQ25" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR25" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>14.3</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="T26" s="7" t="n">
+      <c r="L26" s="5"/>
+      <c r="M26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="U26" s="7" t="n">
         <v>48.414</v>
       </c>
-      <c r="U26" s="7" t="n">
+      <c r="V26" s="7" t="n">
         <v>-104.3308</v>
       </c>
-      <c r="V26" s="1" t="n">
+      <c r="W26" s="1" t="n">
         <v>728</v>
       </c>
-      <c r="W26" s="1" t="n">
+      <c r="X26" s="1" t="n">
         <v>-12.6</v>
       </c>
-      <c r="X26" s="1" t="n">
+      <c r="Y26" s="1" t="n">
         <v>-24.8</v>
       </c>
-      <c r="Y26" s="1" t="n">
+      <c r="Z26" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="Z26" s="1" t="n">
+      <c r="AA26" s="1" t="n">
         <v>-24.8</v>
       </c>
-      <c r="AA26" s="1" t="n">
+      <c r="AB26" s="1" t="n">
         <v>-22.6</v>
       </c>
-      <c r="AB26" s="1" t="n">
+      <c r="AC26" s="1" t="n">
         <v>-19.2</v>
       </c>
-      <c r="AC26" s="1" t="n">
+      <c r="AD26" s="1" t="n">
         <v>-14.3</v>
       </c>
-      <c r="AD26" s="1" t="n">
+      <c r="AE26" s="1" t="n">
         <v>-10.3</v>
       </c>
-      <c r="AE26" s="1" t="n">
+      <c r="AF26" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AF26" s="1" t="n">
+      <c r="AG26" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="AG26" s="1" t="n">
+      <c r="AH26" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AH26" s="1" t="n">
+      <c r="AI26" s="1" t="n">
         <v>-10.1</v>
       </c>
-      <c r="AI26" s="1" t="n">
+      <c r="AJ26" s="1" t="n">
         <v>-13.5</v>
       </c>
-      <c r="AJ26" s="1" t="n">
+      <c r="AK26" s="1" t="n">
         <v>-18.5</v>
       </c>
-      <c r="AK26" s="1" t="n">
+      <c r="AL26" s="1" t="n">
         <v>-22.8</v>
-      </c>
-      <c r="AO26" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>55</v>
@@ -3270,101 +3306,102 @@
       <c r="AQ26" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR26" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="T27" s="7" t="n">
+      <c r="L27" s="5"/>
+      <c r="M27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="U27" s="7" t="n">
         <v>49.2808</v>
       </c>
-      <c r="U27" s="7" t="n">
+      <c r="V27" s="7" t="n">
         <v>-111.2656</v>
       </c>
-      <c r="V27" s="1" t="n">
+      <c r="W27" s="1" t="n">
         <v>891</v>
       </c>
-      <c r="W27" s="1" t="n">
+      <c r="X27" s="1" t="n">
         <v>-16.1</v>
       </c>
-      <c r="X27" s="1" t="n">
+      <c r="Y27" s="1" t="n">
         <v>-24.3</v>
       </c>
-      <c r="Y27" s="1" t="n">
+      <c r="Z27" s="1" t="n">
         <v>-10.4</v>
       </c>
-      <c r="Z27" s="1" t="n">
+      <c r="AA27" s="1" t="n">
         <v>-24.2</v>
       </c>
-      <c r="AA27" s="1" t="n">
+      <c r="AB27" s="1" t="n">
         <v>-24</v>
       </c>
-      <c r="AB27" s="1" t="n">
+      <c r="AC27" s="1" t="n">
         <v>-21.7</v>
       </c>
-      <c r="AC27" s="1" t="n">
+      <c r="AD27" s="1" t="n">
         <v>-17.2</v>
       </c>
-      <c r="AD27" s="1" t="n">
+      <c r="AE27" s="1" t="n">
         <v>-13.8</v>
       </c>
-      <c r="AE27" s="1" t="n">
+      <c r="AF27" s="1" t="n">
         <v>-12.6</v>
       </c>
-      <c r="AF27" s="1" t="n">
+      <c r="AG27" s="1" t="n">
         <v>-10.4</v>
       </c>
-      <c r="AG27" s="1" t="n">
+      <c r="AH27" s="1" t="n">
         <v>-11</v>
       </c>
-      <c r="AH27" s="1" t="n">
+      <c r="AI27" s="1" t="n">
         <v>-12.3</v>
       </c>
-      <c r="AI27" s="1" t="n">
+      <c r="AJ27" s="1" t="n">
         <v>-15.2</v>
       </c>
-      <c r="AJ27" s="1" t="n">
+      <c r="AK27" s="1" t="n">
         <v>-20.5</v>
       </c>
-      <c r="AK27" s="1" t="n">
+      <c r="AL27" s="1" t="n">
         <v>-24.3</v>
-      </c>
-      <c r="AO27" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP27" s="1" t="s">
         <v>55</v>
@@ -3372,101 +3409,102 @@
       <c r="AQ27" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR27" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="T28" s="7" t="n">
+      <c r="L28" s="5"/>
+      <c r="M28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="U28" s="7" t="n">
         <v>52.0901</v>
       </c>
-      <c r="U28" s="7" t="n">
+      <c r="V28" s="7" t="n">
         <v>-106.3951</v>
       </c>
-      <c r="V28" s="1" t="n">
+      <c r="W28" s="1" t="n">
         <v>499</v>
       </c>
-      <c r="W28" s="1" t="n">
+      <c r="X28" s="1" t="n">
         <v>-15</v>
       </c>
-      <c r="X28" s="1" t="n">
+      <c r="Y28" s="1" t="n">
         <v>-25.6</v>
       </c>
-      <c r="Y28" s="1" t="n">
+      <c r="Z28" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="Z28" s="1" t="n">
+      <c r="AA28" s="1" t="n">
         <v>-25.6</v>
       </c>
-      <c r="AA28" s="1" t="n">
+      <c r="AB28" s="1" t="n">
         <v>-23.5</v>
       </c>
-      <c r="AB28" s="1" t="n">
+      <c r="AC28" s="1" t="n">
         <v>-21.3</v>
       </c>
-      <c r="AC28" s="1" t="n">
+      <c r="AD28" s="1" t="n">
         <v>-15.9</v>
       </c>
-      <c r="AD28" s="1" t="n">
+      <c r="AE28" s="1" t="n">
         <v>-11.7</v>
       </c>
-      <c r="AE28" s="1" t="n">
+      <c r="AF28" s="1" t="n">
         <v>-11.1</v>
       </c>
-      <c r="AF28" s="1" t="n">
+      <c r="AG28" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="AG28" s="1" t="n">
+      <c r="AH28" s="1" t="n">
         <v>-10.9</v>
       </c>
-      <c r="AH28" s="1" t="n">
+      <c r="AI28" s="1" t="n">
         <v>-11.7</v>
       </c>
-      <c r="AI28" s="1" t="n">
+      <c r="AJ28" s="1" t="n">
         <v>-14.7</v>
       </c>
-      <c r="AJ28" s="1" t="n">
+      <c r="AK28" s="1" t="n">
         <v>-20.2</v>
       </c>
-      <c r="AK28" s="1" t="n">
+      <c r="AL28" s="1" t="n">
         <v>-24.6</v>
-      </c>
-      <c r="AO28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP28" s="1" t="s">
         <v>55</v>
@@ -3474,101 +3512,104 @@
       <c r="AQ28" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR28" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>10.9</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="T29" s="7" t="n">
+      <c r="L29" s="5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="U29" s="7" t="n">
         <v>49.4118</v>
       </c>
-      <c r="U29" s="7" t="n">
+      <c r="V29" s="7" t="n">
         <v>-112.5044</v>
       </c>
-      <c r="V29" s="1" t="n">
+      <c r="W29" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="W29" s="1" t="n">
+      <c r="X29" s="1" t="n">
         <v>-16.2</v>
       </c>
-      <c r="X29" s="1" t="n">
+      <c r="Y29" s="1" t="n">
         <v>-24.2</v>
       </c>
-      <c r="Y29" s="1" t="n">
+      <c r="Z29" s="1" t="n">
         <v>-10.6</v>
       </c>
-      <c r="Z29" s="1" t="n">
+      <c r="AA29" s="1" t="n">
         <v>-24</v>
       </c>
-      <c r="AA29" s="1" t="n">
+      <c r="AB29" s="1" t="n">
         <v>-23.9</v>
       </c>
-      <c r="AB29" s="1" t="n">
+      <c r="AC29" s="1" t="n">
         <v>-21.6</v>
       </c>
-      <c r="AC29" s="1" t="n">
+      <c r="AD29" s="1" t="n">
         <v>-17.3</v>
       </c>
-      <c r="AD29" s="1" t="n">
+      <c r="AE29" s="1" t="n">
         <v>-14.1</v>
       </c>
-      <c r="AE29" s="1" t="n">
+      <c r="AF29" s="1" t="n">
         <v>-12.8</v>
       </c>
-      <c r="AF29" s="1" t="n">
+      <c r="AG29" s="1" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AG29" s="1" t="n">
+      <c r="AH29" s="1" t="n">
         <v>-11.1</v>
       </c>
-      <c r="AH29" s="1" t="n">
+      <c r="AI29" s="1" t="n">
         <v>-12.3</v>
       </c>
-      <c r="AI29" s="1" t="n">
+      <c r="AJ29" s="1" t="n">
         <v>-15.1</v>
       </c>
-      <c r="AJ29" s="1" t="n">
+      <c r="AK29" s="1" t="n">
         <v>-20.5</v>
       </c>
-      <c r="AK29" s="1" t="n">
+      <c r="AL29" s="1" t="n">
         <v>-24.2</v>
-      </c>
-      <c r="AO29" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP29" s="1" t="s">
         <v>55</v>
@@ -3576,101 +3617,104 @@
       <c r="AQ29" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR29" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>10.6</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="T30" s="7" t="n">
+      <c r="L30" s="5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="U30" s="7" t="n">
         <v>53.332</v>
       </c>
-      <c r="U30" s="7" t="n">
+      <c r="V30" s="7" t="n">
         <v>-113.2933</v>
       </c>
-      <c r="V30" s="1" t="n">
+      <c r="W30" s="1" t="n">
         <v>692</v>
       </c>
-      <c r="W30" s="1" t="n">
+      <c r="X30" s="1" t="n">
         <v>-17</v>
       </c>
-      <c r="X30" s="1" t="n">
+      <c r="Y30" s="1" t="n">
         <v>-27.5</v>
       </c>
-      <c r="Y30" s="1" t="n">
+      <c r="Z30" s="1" t="n">
         <v>-11.4</v>
       </c>
-      <c r="Z30" s="1" t="n">
+      <c r="AA30" s="1" t="n">
         <v>-27.5</v>
       </c>
-      <c r="AA30" s="1" t="n">
+      <c r="AB30" s="1" t="n">
         <v>-25.9</v>
       </c>
-      <c r="AB30" s="1" t="n">
+      <c r="AC30" s="1" t="n">
         <v>-24.7</v>
       </c>
-      <c r="AC30" s="1" t="n">
+      <c r="AD30" s="1" t="n">
         <v>-19.2</v>
       </c>
-      <c r="AD30" s="1" t="n">
+      <c r="AE30" s="1" t="n">
         <v>-15.2</v>
       </c>
-      <c r="AE30" s="1" t="n">
+      <c r="AF30" s="1" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AF30" s="1" t="n">
+      <c r="AG30" s="1" t="n">
         <v>-11.4</v>
-      </c>
-      <c r="AG30" s="1" t="n">
-        <v>-13.4</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>-13.4</v>
       </c>
       <c r="AI30" s="1" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="AJ30" s="1" t="n">
         <v>-15.9</v>
       </c>
-      <c r="AJ30" s="1" t="n">
+      <c r="AK30" s="1" t="n">
         <v>-22.2</v>
       </c>
-      <c r="AK30" s="1" t="n">
+      <c r="AL30" s="1" t="n">
         <v>-26.8</v>
-      </c>
-      <c r="AO30" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP30" s="1" t="s">
         <v>55</v>
@@ -3678,101 +3722,102 @@
       <c r="AQ30" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR30" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>11.3</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="T31" s="7" t="n">
+      <c r="L31" s="5"/>
+      <c r="M31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="U31" s="7" t="n">
         <v>51.2418</v>
       </c>
-      <c r="U31" s="7" t="n">
+      <c r="V31" s="7" t="n">
         <v>-112.3752</v>
       </c>
-      <c r="V31" s="1" t="n">
+      <c r="W31" s="1" t="n">
         <v>758</v>
       </c>
-      <c r="W31" s="1" t="n">
+      <c r="X31" s="1" t="n">
         <v>-17.2</v>
       </c>
-      <c r="X31" s="1" t="n">
+      <c r="Y31" s="1" t="n">
         <v>-26.4</v>
       </c>
-      <c r="Y31" s="1" t="n">
+      <c r="Z31" s="1" t="n">
         <v>-11.6</v>
       </c>
-      <c r="Z31" s="1" t="n">
+      <c r="AA31" s="1" t="n">
         <v>-26.4</v>
       </c>
-      <c r="AA31" s="1" t="n">
+      <c r="AB31" s="1" t="n">
         <v>-25.3</v>
       </c>
-      <c r="AB31" s="1" t="n">
+      <c r="AC31" s="1" t="n">
         <v>-23.7</v>
       </c>
-      <c r="AC31" s="1" t="n">
+      <c r="AD31" s="1" t="n">
         <v>-18.5</v>
       </c>
-      <c r="AD31" s="1" t="n">
+      <c r="AE31" s="1" t="n">
         <v>-15</v>
       </c>
-      <c r="AE31" s="1" t="n">
+      <c r="AF31" s="1" t="n">
         <v>-13.6</v>
       </c>
-      <c r="AF31" s="1" t="n">
+      <c r="AG31" s="1" t="n">
         <v>-11.6</v>
       </c>
-      <c r="AG31" s="1" t="n">
+      <c r="AH31" s="1" t="n">
         <v>-13</v>
       </c>
-      <c r="AH31" s="1" t="n">
+      <c r="AI31" s="1" t="n">
         <v>-13.3</v>
       </c>
-      <c r="AI31" s="1" t="n">
+      <c r="AJ31" s="1" t="n">
         <v>-15.9</v>
       </c>
-      <c r="AJ31" s="1" t="n">
+      <c r="AK31" s="1" t="n">
         <v>-21.6</v>
       </c>
-      <c r="AK31" s="1" t="n">
+      <c r="AL31" s="1" t="n">
         <v>-25.8</v>
-      </c>
-      <c r="AO31" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>55</v>
@@ -3780,718 +3825,773 @@
       <c r="AQ31" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AR31" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>10.8</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="T32" s="7" t="n">
+      <c r="L32" s="5"/>
+      <c r="M32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="U32" s="7" t="n">
         <v>51.2509</v>
       </c>
-      <c r="U32" s="7" t="n">
+      <c r="V32" s="7" t="n">
         <v>-120.1219</v>
       </c>
-      <c r="V32" s="1" t="n">
+      <c r="W32" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="W32" s="1" t="n">
+      <c r="X32" s="1" t="n">
         <v>-14.3</v>
       </c>
-      <c r="X32" s="1" t="n">
+      <c r="Y32" s="1" t="n">
         <v>-19.6</v>
       </c>
-      <c r="Y32" s="1" t="n">
+      <c r="Z32" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="Z32" s="1" t="n">
+      <c r="AA32" s="1" t="n">
         <v>-19.6</v>
       </c>
-      <c r="AA32" s="1" t="n">
+      <c r="AB32" s="1" t="n">
         <v>-19.2</v>
       </c>
-      <c r="AB32" s="1" t="n">
+      <c r="AC32" s="1" t="n">
         <v>-17.5</v>
       </c>
-      <c r="AC32" s="1" t="n">
+      <c r="AD32" s="1" t="n">
         <v>-14.2</v>
       </c>
-      <c r="AD32" s="1" t="n">
+      <c r="AE32" s="1" t="n">
         <v>-11.9</v>
       </c>
-      <c r="AE32" s="1" t="n">
+      <c r="AF32" s="1" t="n">
         <v>-11</v>
       </c>
-      <c r="AF32" s="1" t="n">
+      <c r="AG32" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AG32" s="1" t="n">
+      <c r="AH32" s="1" t="n">
         <v>-9.2</v>
       </c>
-      <c r="AH32" s="1" t="n">
+      <c r="AI32" s="1" t="n">
         <v>-9.1</v>
       </c>
-      <c r="AI32" s="1" t="n">
+      <c r="AJ32" s="1" t="n">
         <v>-11.9</v>
       </c>
-      <c r="AJ32" s="1" t="n">
+      <c r="AK32" s="1" t="n">
         <v>-15.8</v>
       </c>
-      <c r="AK32" s="1" t="n">
+      <c r="AL32" s="1" t="n">
         <v>-17.9</v>
-      </c>
-      <c r="AO32" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="T33" s="7"/>
+      <c r="N33" s="5"/>
       <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="T34" s="7"/>
+      <c r="N34" s="5"/>
       <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="T35" s="7"/>
+      <c r="N35" s="5"/>
       <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="T36" s="7"/>
+      <c r="N36" s="5"/>
       <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="T37" s="7"/>
+      <c r="N37" s="5"/>
       <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="T38" s="7"/>
+      <c r="N38" s="5"/>
       <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="T39" s="7"/>
+      <c r="N39" s="5"/>
       <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="T40" s="7"/>
+      <c r="N40" s="5"/>
       <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="T41" s="7"/>
+      <c r="N41" s="5"/>
       <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="T42" s="7"/>
+      <c r="N42" s="5"/>
       <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="T43" s="7"/>
+      <c r="N43" s="5"/>
       <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="T44" s="7"/>
+      <c r="N44" s="5"/>
       <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="T45" s="7"/>
+      <c r="N45" s="5"/>
       <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="T46" s="7"/>
+      <c r="N46" s="5"/>
       <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="T47" s="7"/>
+      <c r="N47" s="5"/>
       <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="T48" s="7"/>
+      <c r="N48" s="5"/>
       <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="T49" s="7"/>
+      <c r="N49" s="5"/>
       <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="T50" s="7"/>
+      <c r="N50" s="5"/>
       <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="T51" s="7"/>
+      <c r="N51" s="5"/>
       <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="T52" s="7"/>
+      <c r="N52" s="5"/>
       <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="T53" s="7"/>
+      <c r="N53" s="5"/>
       <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="T54" s="7"/>
+      <c r="N54" s="5"/>
       <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="T55" s="7"/>
+      <c r="N55" s="5"/>
       <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="T56" s="7"/>
+      <c r="N56" s="5"/>
       <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="T57" s="7"/>
+      <c r="N57" s="5"/>
       <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="T58" s="7"/>
+      <c r="N58" s="5"/>
       <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="T59" s="7"/>
+      <c r="N59" s="5"/>
       <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="T60" s="7"/>
+      <c r="N60" s="5"/>
       <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="T61" s="7"/>
+      <c r="N61" s="5"/>
       <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="T62" s="7"/>
+      <c r="N62" s="5"/>
       <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="T63" s="7"/>
+      <c r="N63" s="5"/>
       <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="T64" s="7"/>
+      <c r="N64" s="5"/>
       <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="T65" s="7"/>
+      <c r="N65" s="5"/>
       <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="T66" s="7"/>
+      <c r="N66" s="5"/>
       <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="T67" s="7"/>
+      <c r="N67" s="5"/>
       <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="T68" s="7"/>
+      <c r="N68" s="5"/>
       <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="T69" s="7"/>
+      <c r="N69" s="5"/>
       <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="T70" s="7"/>
+      <c r="N70" s="5"/>
       <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="T71" s="7"/>
+      <c r="N71" s="5"/>
       <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="T72" s="7"/>
+      <c r="N72" s="5"/>
       <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="T73" s="7"/>
+      <c r="N73" s="5"/>
       <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="T74" s="7"/>
+      <c r="N74" s="5"/>
       <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="T75" s="7"/>
+      <c r="N75" s="5"/>
       <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="T76" s="7"/>
+      <c r="N76" s="5"/>
       <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="T77" s="7"/>
+      <c r="N77" s="5"/>
       <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="T78" s="7"/>
+      <c r="N78" s="5"/>
       <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="T79" s="7"/>
+      <c r="N79" s="5"/>
       <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="T80" s="7"/>
+      <c r="N80" s="5"/>
       <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="T81" s="7"/>
+      <c r="N81" s="5"/>
       <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="T82" s="7"/>
+      <c r="N82" s="5"/>
       <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="T83" s="7"/>
+      <c r="N83" s="5"/>
       <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="T84" s="7"/>
+      <c r="N84" s="5"/>
       <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
-      <c r="T85" s="7"/>
+      <c r="N85" s="5"/>
       <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
-      <c r="T86" s="7"/>
+      <c r="N86" s="5"/>
       <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
-      <c r="T87" s="7"/>
+      <c r="N87" s="5"/>
       <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="T88" s="7"/>
+      <c r="N88" s="5"/>
       <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="T89" s="7"/>
+      <c r="N89" s="5"/>
       <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="T90" s="7"/>
+      <c r="N90" s="5"/>
       <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="7"/>
+      <c r="N91" s="5"/>
+      <c r="T91" s="9"/>
       <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="7"/>
+      <c r="N92" s="5"/>
+      <c r="T92" s="9"/>
       <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="7"/>
+      <c r="N93" s="5"/>
+      <c r="T93" s="9"/>
       <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="7"/>
+      <c r="N94" s="5"/>
+      <c r="T94" s="9"/>
       <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L95" s="5"/>
       <c r="M95" s="5"/>
-      <c r="T95" s="7"/>
+      <c r="N95" s="5"/>
       <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L96" s="5"/>
       <c r="M96" s="5"/>
-      <c r="T96" s="7"/>
+      <c r="N96" s="5"/>
       <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="T97" s="7"/>
+      <c r="N97" s="5"/>
       <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L98" s="5"/>
       <c r="M98" s="5"/>
-      <c r="T98" s="7"/>
+      <c r="N98" s="5"/>
       <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="T99" s="7"/>
+      <c r="N99" s="5"/>
       <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
